--- a/data/escapement/prelim-inseason/EscEstSppHeader_area20-22_2024.xlsx
+++ b/data/escapement/prelim-inseason/EscEstSppHeader_area20-22_2024.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EscEstSppHeader"/>
   </sheets>
   <definedNames>
-    <definedName name="EscEstSppHeader">'EscEstSppHeader'!$A$1:$AN$44</definedName>
+    <definedName name="EscEstSppHeader">'EscEstSppHeader'!$A$1:$AN$48</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -3772,34 +3772,34 @@
         </is>
       </c>
       <c r="D27" s="1">
-        <v>45536</v>
+        <v>45501</v>
       </c>
       <c r="E27" s="1">
-        <v>45611</v>
+        <v>45626</v>
       </c>
       <c r="F27" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G27" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H27" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I27" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J27" s="0">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="K27" s="0">
-        <v>2483874</v>
+        <v>2065028.5</v>
       </c>
       <c r="L27" s="0">
-        <v>99355</v>
+        <v>206503</v>
       </c>
       <c r="M27" s="0">
-        <v>165592</v>
+        <v>258129</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>2759436.46191698</v>
+        <v>2393962.84358531</v>
       </c>
       <c r="R27" s="0">
-        <v>110377</v>
+        <v>239396</v>
       </c>
       <c r="S27" s="0">
-        <v>183962</v>
+        <v>299245</v>
       </c>
       <c r="T27" s="0">
         <v>0</v>
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>129349</v>
+        <v>102250</v>
       </c>
       <c r="X27" s="0">
-        <v>138011</v>
+        <v>113278</v>
       </c>
       <c r="Y27" s="0">
         <v>0</v>
@@ -3847,9 +3847,6 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="0">
         <v>0</v>
       </c>
       <c r="AE27" s="0">
@@ -3875,6 +3872,11 @@
       </c>
       <c r="AL27" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM27" s="0" t="inlineStr">
+        <is>
+          <t>Sept 20 % pop reduced as chum were starting to arrive and may have missed some in the upper section which was not swum this day.</t>
+        </is>
       </c>
       <c r="AN27" s="0" t="b">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="D28" s="1">
-        <v>45536</v>
+        <v>45519</v>
       </c>
       <c r="E28" s="1">
         <v>45611</v>
@@ -3913,55 +3915,55 @@
         <v>25</v>
       </c>
       <c r="J28" s="0">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="K28" s="0">
-        <v>248539.5</v>
+        <v>233865</v>
       </c>
       <c r="L28" s="0">
-        <v>9942</v>
+        <v>9355</v>
       </c>
       <c r="M28" s="0">
-        <v>16569</v>
+        <v>15591</v>
       </c>
       <c r="N28" s="0">
-        <v>4594</v>
+        <v>4421.5</v>
       </c>
       <c r="O28" s="0">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="P28" s="0">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="0">
-        <v>293696.000959983</v>
+        <v>303095.482360849</v>
       </c>
       <c r="R28" s="0">
-        <v>11748</v>
+        <v>12124</v>
       </c>
       <c r="S28" s="0">
-        <v>19580</v>
+        <v>20206</v>
       </c>
       <c r="T28" s="0">
-        <v>3418.93107717239</v>
+        <v>5449.96066888726</v>
       </c>
       <c r="U28" s="0">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="V28" s="0">
-        <v>228</v>
+        <v>363</v>
       </c>
       <c r="W28" s="0">
         <v>7296</v>
       </c>
       <c r="X28" s="0">
-        <v>8080</v>
+        <v>9007</v>
       </c>
       <c r="Y28" s="0">
         <v>295</v>
       </c>
       <c r="Z28" s="0">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -3998,6 +4000,11 @@
       </c>
       <c r="AL28" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM28" s="0" t="inlineStr">
+        <is>
+          <t>Sept 4 and 20 % pop reduced as chum were starting to arrive and may have missed some in the upper section which was not swum on either day. Oct 24 % pop reduced further as only swam the lower; see accompanying prelim esc Rmarkdown file for details.</t>
+        </is>
       </c>
       <c r="AN28" s="0" t="b">
         <v>0</v>
@@ -4018,73 +4025,73 @@
         </is>
       </c>
       <c r="D29" s="1">
-        <v>45536</v>
+        <v>45519</v>
       </c>
       <c r="E29" s="1">
-        <v>45611</v>
+        <v>45657</v>
       </c>
       <c r="F29" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G29" s="0">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H29" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I29" s="0">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J29" s="0">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="K29" s="0">
-        <v>38190.5</v>
+        <v>66034.5</v>
       </c>
       <c r="L29" s="0">
-        <v>1528</v>
+        <v>1887</v>
       </c>
       <c r="M29" s="0">
-        <v>2546</v>
+        <v>2641</v>
       </c>
       <c r="N29" s="0">
-        <v>4286.5</v>
+        <v>7393.5</v>
       </c>
       <c r="O29" s="0">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="P29" s="0">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="0">
-        <v>44484.9999341255</v>
+        <v>85972.6128382703</v>
       </c>
       <c r="R29" s="0">
-        <v>1779</v>
+        <v>2456</v>
       </c>
       <c r="S29" s="0">
-        <v>2966</v>
+        <v>3439</v>
       </c>
       <c r="T29" s="0">
-        <v>4999.08474526706</v>
+        <v>9682.72968490306</v>
       </c>
       <c r="U29" s="0">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="V29" s="0">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="W29" s="0">
         <v>1494</v>
       </c>
       <c r="X29" s="0">
-        <v>1732</v>
+        <v>1793</v>
       </c>
       <c r="Y29" s="0">
         <v>173</v>
       </c>
       <c r="Z29" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AA29" s="0">
         <v>0</v>
@@ -4121,6 +4128,11 @@
       </c>
       <c r="AL29" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM29" s="0" t="inlineStr">
+        <is>
+          <t>Oct 24 % pop reduced further as only swam the lower; see accompanying prelim esc Rmarkdown file for details. Nov 7 % pop reduced as did not swim tributaries where coho may be heading to this time of year.</t>
+        </is>
       </c>
       <c r="AN29" s="0" t="b">
         <v>0</v>
@@ -4264,34 +4276,34 @@
         </is>
       </c>
       <c r="D31" s="1">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="E31" s="1">
-        <v>45611</v>
+        <v>45606</v>
       </c>
       <c r="F31" s="0">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G31" s="0">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H31" s="0">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I31" s="0">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J31" s="0">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="K31" s="0">
-        <v>10317.5</v>
+        <v>11274</v>
       </c>
       <c r="L31" s="0">
-        <v>413</v>
+        <v>282</v>
       </c>
       <c r="M31" s="0">
-        <v>688</v>
+        <v>376</v>
       </c>
       <c r="N31" s="0">
         <v>11.5</v>
@@ -4300,16 +4312,16 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>11588.2352188386</v>
+        <v>14560.4702426181</v>
       </c>
       <c r="R31" s="0">
-        <v>464</v>
+        <v>364</v>
       </c>
       <c r="S31" s="0">
-        <v>773</v>
+        <v>485</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -4324,7 +4336,7 @@
         <v>230</v>
       </c>
       <c r="X31" s="0">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="Y31" s="0">
         <v>1</v>
@@ -4333,16 +4345,16 @@
         <v>1</v>
       </c>
       <c r="AA31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -4368,7 +4380,11 @@
       <c r="AL31" s="0">
         <v>-1</v>
       </c>
-      <c r="AM31" s="0" t="inlineStr"/>
+      <c r="AM31" s="0" t="inlineStr">
+        <is>
+          <t>% pop lowered for almost all surveys as did not survey Parker Creek/Tuck Lake, and surveys were not timed for SK. Oct 24 % pop reduced further as only swam the lower; see accompanying prelim esc RMarkdown file for details.</t>
+        </is>
+      </c>
       <c r="AN31" s="0" t="b">
         <v>0</v>
       </c>
@@ -4492,7 +4508,6 @@
       <c r="AL32" s="0">
         <v>-1</v>
       </c>
-      <c r="AM32" s="0" t="inlineStr"/>
       <c r="AN32" s="0" t="b">
         <v>0</v>
       </c>
@@ -4739,7 +4754,6 @@
       <c r="AL34" s="0">
         <v>-1</v>
       </c>
-      <c r="AM34" s="0" t="inlineStr"/>
       <c r="AN34" s="0" t="b">
         <v>0</v>
       </c>
@@ -4926,13 +4940,13 @@
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>138.888883369941</v>
+        <v>78.1249968955915</v>
       </c>
       <c r="R36" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S36" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T36" s="0">
         <v>0</v>
@@ -4947,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="X36" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y36" s="0">
         <v>0</v>
@@ -4965,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="0">
         <v>0</v>
@@ -4993,7 +5007,7 @@
       </c>
       <c r="AM36" s="0" t="inlineStr">
         <is>
-          <t>One survey was conducted Nov 1st. The survey started at marker 24 of 39. The percent population was adjusted to 30% for three reasons: this survey occurred very late for the assessment of Chinook abundances, the creek recently flooded prior to the swim, and to account for the swampy and highly vegetated channels that were not surveyed up above. An OE of 90% wasused since swim conditions were good; water level was normal and visibility was good to slightly turbid in some sections. This survey was very late for assessing Chinook abundance.Type-6 enumeration class since only one survey was performed well after peak spawning. Used PL+D for estimate expansion.</t>
+          <t>One swim Nov 1. Swam marker 24 to lake, as well as side channel and Borrow Pits. The percent population was adjusted to 60% for three reasons: this survey occurred late for Chinook , the creek recently flooded prior to the swim, and to account for the swampy and highly vegetated channels that were not surveyed up above. OE of 80% used since swim conditions were good; water level was normal and visibility was good to slightly turbid in some sections. Type-6 due to only one survey and well after peak spawning. Used PL+D expanded.</t>
         </is>
       </c>
       <c r="AN36" s="0" t="b">
@@ -5382,7 +5396,7 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B40" s="0">
@@ -5415,13 +5429,13 @@
         <v>75</v>
       </c>
       <c r="K40" s="0">
-        <v>1012.5</v>
+        <v>14250</v>
       </c>
       <c r="L40" s="0">
-        <v>40</v>
+        <v>570</v>
       </c>
       <c r="M40" s="0">
-        <v>68</v>
+        <v>950</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -5433,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>1125.00002980232</v>
+        <v>14250</v>
       </c>
       <c r="R40" s="0">
-        <v>45</v>
+        <v>570</v>
       </c>
       <c r="S40" s="0">
-        <v>75</v>
+        <v>950</v>
       </c>
       <c r="T40" s="0">
         <v>0</v>
@@ -5451,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="X40" s="0">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -5463,15 +5477,12 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="0">
         <v>0</v>
       </c>
       <c r="AE40" s="0">
@@ -5505,7 +5516,7 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B41" s="0">
@@ -5628,7 +5639,7 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B42" s="0">
@@ -5661,52 +5672,52 @@
         <v>75</v>
       </c>
       <c r="K42" s="0">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M42" s="0">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O42" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1500.00003973643</v>
+        <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S42" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>333.333342163651</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W42" s="0">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="0">
         <v>0</v>
@@ -5751,7 +5762,7 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B43" s="0">
@@ -5874,7 +5885,7 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>930-979400-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B44" s="0">
@@ -5882,7 +5893,7 @@
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D44" s="1">
@@ -5904,16 +5915,16 @@
         <v>25</v>
       </c>
       <c r="J44" s="0">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K44" s="0">
-        <v>0</v>
+        <v>13412</v>
       </c>
       <c r="L44" s="0">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="M44" s="0">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -5925,13 +5936,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>0</v>
+        <v>14902.2226169963</v>
       </c>
       <c r="R44" s="0">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="S44" s="0">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -5943,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="X44" s="0">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Y44" s="0">
         <v>0</v>
@@ -5991,6 +6002,498 @@
         <v>-1</v>
       </c>
       <c r="AN44" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B45" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D45" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F45" s="0">
+        <v>15</v>
+      </c>
+      <c r="G45" s="0">
+        <v>25</v>
+      </c>
+      <c r="H45" s="0">
+        <v>15</v>
+      </c>
+      <c r="I45" s="0">
+        <v>25</v>
+      </c>
+      <c r="J45" s="0">
+        <v>75</v>
+      </c>
+      <c r="K45" s="0">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0">
+        <v>0</v>
+      </c>
+      <c r="M45" s="0">
+        <v>0</v>
+      </c>
+      <c r="N45" s="0">
+        <v>0</v>
+      </c>
+      <c r="O45" s="0">
+        <v>0</v>
+      </c>
+      <c r="P45" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="0">
+        <v>0</v>
+      </c>
+      <c r="R45" s="0">
+        <v>0</v>
+      </c>
+      <c r="S45" s="0">
+        <v>0</v>
+      </c>
+      <c r="T45" s="0">
+        <v>0</v>
+      </c>
+      <c r="U45" s="0">
+        <v>0</v>
+      </c>
+      <c r="V45" s="0">
+        <v>0</v>
+      </c>
+      <c r="W45" s="0">
+        <v>0</v>
+      </c>
+      <c r="X45" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN45" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B46" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D46" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F46" s="0">
+        <v>15</v>
+      </c>
+      <c r="G46" s="0">
+        <v>25</v>
+      </c>
+      <c r="H46" s="0">
+        <v>15</v>
+      </c>
+      <c r="I46" s="0">
+        <v>25</v>
+      </c>
+      <c r="J46" s="0">
+        <v>75</v>
+      </c>
+      <c r="K46" s="0">
+        <v>396</v>
+      </c>
+      <c r="L46" s="0">
+        <v>16</v>
+      </c>
+      <c r="M46" s="0">
+        <v>26</v>
+      </c>
+      <c r="N46" s="0">
+        <v>88</v>
+      </c>
+      <c r="O46" s="0">
+        <v>4</v>
+      </c>
+      <c r="P46" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="0">
+        <v>440.00001165602</v>
+      </c>
+      <c r="R46" s="0">
+        <v>18</v>
+      </c>
+      <c r="S46" s="0">
+        <v>29</v>
+      </c>
+      <c r="T46" s="0">
+        <v>97.7777803680044</v>
+      </c>
+      <c r="U46" s="0">
+        <v>4</v>
+      </c>
+      <c r="V46" s="0">
+        <v>7</v>
+      </c>
+      <c r="W46" s="0">
+        <v>36</v>
+      </c>
+      <c r="X46" s="0">
+        <v>40</v>
+      </c>
+      <c r="Y46" s="0">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="0">
+        <v>9</v>
+      </c>
+      <c r="AA46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN46" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B47" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D47" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F47" s="0">
+        <v>15</v>
+      </c>
+      <c r="G47" s="0">
+        <v>25</v>
+      </c>
+      <c r="H47" s="0">
+        <v>15</v>
+      </c>
+      <c r="I47" s="0">
+        <v>25</v>
+      </c>
+      <c r="J47" s="0">
+        <v>75</v>
+      </c>
+      <c r="K47" s="0">
+        <v>0</v>
+      </c>
+      <c r="L47" s="0">
+        <v>0</v>
+      </c>
+      <c r="M47" s="0">
+        <v>0</v>
+      </c>
+      <c r="N47" s="0">
+        <v>0</v>
+      </c>
+      <c r="O47" s="0">
+        <v>0</v>
+      </c>
+      <c r="P47" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="0">
+        <v>0</v>
+      </c>
+      <c r="R47" s="0">
+        <v>0</v>
+      </c>
+      <c r="S47" s="0">
+        <v>0</v>
+      </c>
+      <c r="T47" s="0">
+        <v>0</v>
+      </c>
+      <c r="U47" s="0">
+        <v>0</v>
+      </c>
+      <c r="V47" s="0">
+        <v>0</v>
+      </c>
+      <c r="W47" s="0">
+        <v>0</v>
+      </c>
+      <c r="X47" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN47" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>930-979400-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B48" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D48" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F48" s="0">
+        <v>15</v>
+      </c>
+      <c r="G48" s="0">
+        <v>25</v>
+      </c>
+      <c r="H48" s="0">
+        <v>15</v>
+      </c>
+      <c r="I48" s="0">
+        <v>25</v>
+      </c>
+      <c r="J48" s="0">
+        <v>0</v>
+      </c>
+      <c r="K48" s="0">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0">
+        <v>0</v>
+      </c>
+      <c r="M48" s="0">
+        <v>0</v>
+      </c>
+      <c r="N48" s="0">
+        <v>0</v>
+      </c>
+      <c r="O48" s="0">
+        <v>0</v>
+      </c>
+      <c r="P48" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="0">
+        <v>0</v>
+      </c>
+      <c r="R48" s="0">
+        <v>0</v>
+      </c>
+      <c r="S48" s="0">
+        <v>0</v>
+      </c>
+      <c r="T48" s="0">
+        <v>0</v>
+      </c>
+      <c r="U48" s="0">
+        <v>0</v>
+      </c>
+      <c r="V48" s="0">
+        <v>0</v>
+      </c>
+      <c r="W48" s="0">
+        <v>0</v>
+      </c>
+      <c r="X48" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN48" s="0" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/escapement/prelim-inseason/EscEstSppHeader_area20-22_2024.xlsx
+++ b/data/escapement/prelim-inseason/EscEstSppHeader_area20-22_2024.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EscEstSppHeader"/>
   </sheets>
   <definedNames>
-    <definedName name="EscEstSppHeader">'EscEstSppHeader'!$A$1:$AN$48</definedName>
+    <definedName name="EscEstSppHeader">'EscEstSppHeader'!$A$1:$AN$50</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -781,7 +781,7 @@
         <v>2390</v>
       </c>
       <c r="AE3" s="0">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="AF3" s="0">
         <v>49</v>
@@ -806,7 +806,7 @@
       </c>
       <c r="AM3" s="0" t="inlineStr">
         <is>
-          <t>Two full system snorkel surveys, Oct 2 and 10, and one partial survey (lower only) Oct 25. Set % pop to 75% for Chinook on Oct 25 survey to expand for potential fish missed in upper SJ - Oct 2 survey that had ~67% of live chinook noted in the upper river. Conditions mostly good for all surveys so set OE to 80-90% (final survey at 80% as water levels were higher). Used PL+D expanded estimate. Type-4 as timing was good for Chinook. Did not subtract any fish from tribs this year as most were spawning on the peak count date, and holding fish were only in the upper sections.</t>
+          <t>Two full system snorkel surveys, Oct 2 and 10, and one partial survey (lower only) Oct 25. Set % pop to 75% for Chinook on Oct 25 survey to expand for potential fish missed in upper SJ - Oct 2 survey that had ~67% of live chinook noted in the upper river. Conditions mostly good for all surveys so set OE to 80-90% (final survey at 80% as water levels were higher). Used PL+D expanded estimate. Type-4 as timing was good for Chinook. Did not subtract any fish from tribs this year as most were spawning on the peak count date, and holding fish were only in the upper sections. Add broodstock (148F, 201M) to removals (but note of these, 2M and 1F were culled and not used for broodstock).</t>
         </is>
       </c>
       <c r="AN3" s="0" t="b">
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>2393962.84358531</v>
+        <v>2341327.25147898</v>
       </c>
       <c r="R27" s="0">
-        <v>239396</v>
+        <v>234133</v>
       </c>
       <c r="S27" s="0">
-        <v>299245</v>
+        <v>292666</v>
       </c>
       <c r="T27" s="0">
         <v>0</v>
@@ -3841,16 +3841,19 @@
         <v>0</v>
       </c>
       <c r="AA27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AD27" s="0">
+        <v>260147</v>
       </c>
       <c r="AE27" s="0">
-        <v>0</v>
+        <v>49424</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -3868,14 +3871,14 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL27" s="0">
         <v>-1</v>
       </c>
       <c r="AM27" s="0" t="inlineStr">
         <is>
-          <t>Sept 20 % pop reduced as chum were starting to arrive and may have missed some in the upper section which was not swum this day.</t>
+          <t>6 snorkel surveys (31-July to 7 Nov) of which 3 were Upper+Lower (Oct 1, Oct 11, Nov 7) - not all swims retained for AUC estimate (e.g., 31 July). Sept 20 % pop reduced as chum were starting to arrive and may have missed some in the upper section which was not swum this day. OEs set based on survey conditions, most were decent conditions with a few poor surveys getting 85% (not marked down too much as a lot of fish were spawning so were easily countable). Type-3 due to well-timed heli flight at peak and AUC estimate. Used expanded AUC mid value with SL=9.5 days. Chum in Worthless and Little Nitinat are in addition to this estimate. Hatchery egg target (12M) obtained this year.</t>
         </is>
       </c>
       <c r="AN27" s="0" t="b">
@@ -3966,44 +3969,44 @@
         <v>364</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>11338</v>
       </c>
       <c r="AE28" s="0">
-        <v>0</v>
+        <v>3817</v>
       </c>
       <c r="AF28" s="0">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AG28" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AH28" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="0">
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL28" s="0">
         <v>-1</v>
       </c>
       <c r="AM28" s="0" t="inlineStr">
         <is>
-          <t>Sept 4 and 20 % pop reduced as chum were starting to arrive and may have missed some in the upper section which was not swum on either day. Oct 24 % pop reduced further as only swam the lower; see accompanying prelim esc Rmarkdown file for details.</t>
+          <t>6 snorkel surveys (31-July to 7 Nov) of which 3 were Upper+Lower (Oct 1, Oct 11, Nov 7) - not all swims retained for AUC estimate (e.g., 31 July). Sept 4 and 20 % pop reduced as Chinook were already in the system at hatchery pool and may have missed some in the upper section. Oct 24 % pop reduced further as only swam the lower; see prelim esc Rmarkdown file for details. Considered hatchery swim-ins to be included in the fish counted in river as part of AUC estimate based on fish behaviour and swim timing; therefore, at this stage have removed swim-ins to leave mainstem spawner estimate of ~11k adults. **still need to add in lake-capture broodstock at later stage**. Type-3 due to AUC estimat; used AUC mid value SL=20 days.</t>
         </is>
       </c>
       <c r="AN28" s="0" t="b">
@@ -4064,58 +4067,58 @@
         <v>296</v>
       </c>
       <c r="Q29" s="0">
-        <v>85972.6128382703</v>
+        <v>91510.3349620855</v>
       </c>
       <c r="R29" s="0">
-        <v>2456</v>
+        <v>2615</v>
       </c>
       <c r="S29" s="0">
-        <v>3439</v>
+        <v>3660</v>
       </c>
       <c r="T29" s="0">
-        <v>9682.72968490306</v>
+        <v>10315.6326637748</v>
       </c>
       <c r="U29" s="0">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="V29" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="W29" s="0">
         <v>1494</v>
       </c>
       <c r="X29" s="0">
-        <v>1793</v>
+        <v>1992</v>
       </c>
       <c r="Y29" s="0">
         <v>173</v>
       </c>
       <c r="Z29" s="0">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>2771</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="AF29" s="0">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="AG29" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH29" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="0" t="b">
         <v>0</v>
@@ -4124,14 +4127,14 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL29" s="0">
         <v>-1</v>
       </c>
       <c r="AM29" s="0" t="inlineStr">
         <is>
-          <t>Oct 24 % pop reduced further as only swam the lower; see accompanying prelim esc Rmarkdown file for details. Nov 7 % pop reduced as did not swim tributaries where coho may be heading to this time of year.</t>
+          <t>6 snorkel surveys (31-July to 7 Nov) of which 3 were Upper+Lower (Oct 1, Oct 11, Nov 7) - not all swims retained for AUC estimate (e.g., 31 July). Oct 24 % pop reduced further as only swam the lower; see accompanying prelim esc Rmarkdown file for details. Nov 7 % pop reduced as did not swim tributaries where coho may be heading to this time of year. OEs lowered for some surveys where conditions were poor due to chum and/or post-flood. *REMOVED swim-ins from total (279A, 18J) but still need to ADD lake broodstock (200A, 33J) to total in NuSEDS*</t>
         </is>
       </c>
       <c r="AN29" s="0" t="b">
@@ -4222,16 +4225,16 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
       </c>
       <c r="AD30" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE30" s="0">
         <v>0</v>
@@ -4252,10 +4255,15 @@
         <v>0</v>
       </c>
       <c r="AK30" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL30" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM30" s="0" t="inlineStr">
+        <is>
+          <t>6 snorkel surveys (31-July to 7 Nov) of which 3 were Upper+Lower (Oct 1, Oct 11, Nov 7). No pinks seen (none expected).</t>
+        </is>
       </c>
       <c r="AN30" s="0" t="b">
         <v>0</v>
@@ -4315,34 +4323,34 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>14560.4702426181</v>
+        <v>15805.4999201135</v>
       </c>
       <c r="R31" s="0">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="S31" s="0">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="T31" s="0">
-        <v>0</v>
+        <v>19.658120178882</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
       </c>
       <c r="V31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="0">
         <v>230</v>
       </c>
       <c r="X31" s="0">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="Y31" s="0">
         <v>1</v>
       </c>
       <c r="Z31" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA31" s="0">
         <v>1</v>
@@ -4354,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="AD31" s="0">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -4375,14 +4383,14 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL31" s="0">
         <v>-1</v>
       </c>
       <c r="AM31" s="0" t="inlineStr">
         <is>
-          <t>% pop lowered for almost all surveys as did not survey Parker Creek/Tuck Lake, and surveys were not timed for SK. Oct 24 % pop reduced further as only swam the lower; see accompanying prelim esc RMarkdown file for details.</t>
+          <t>6 snorkel surveys (31-July to 7 Nov) of which 3 were Upper+Lower (Oct 1, Oct 11, Nov 7). % pop lowered for almost all surveys as did not survey Parker Creek/Tuck Lake, and surveys were not timed for SK. Oct 24 % pop reduced further as only swam the lower; see accompanying prelim esc RMarkdown file for details. OEs reduced due to poor counting conditions in pools due to chum and flood conditions on several surveys. Went with AUC mid-range estimate because early survey July 31 (although partial) gave a sense of SK abundance in pools from hatchery-down.Type-4 as not timed specifically for SK.</t>
         </is>
       </c>
       <c r="AN31" s="0" t="b">
@@ -4794,13 +4802,13 @@
         <v>75</v>
       </c>
       <c r="K35" s="0">
-        <v>54412.5</v>
+        <v>61425</v>
       </c>
       <c r="L35" s="0">
-        <v>2176</v>
+        <v>2457</v>
       </c>
       <c r="M35" s="0">
-        <v>3628</v>
+        <v>4095</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -4812,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>63640.3516757742</v>
+        <v>75833.3353422307</v>
       </c>
       <c r="R35" s="0">
-        <v>2546</v>
+        <v>3033</v>
       </c>
       <c r="S35" s="0">
-        <v>4243</v>
+        <v>5056</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -4830,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>4352</v>
+        <v>5390</v>
       </c>
       <c r="X35" s="0">
-        <v>4751</v>
+        <v>6191</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -4851,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0">
-        <v>4751</v>
+        <v>6191</v>
       </c>
       <c r="AE35" s="0">
         <v>0</v>
@@ -4879,7 +4887,7 @@
       </c>
       <c r="AM35" s="0" t="inlineStr">
         <is>
-          <t>One survey was conducted Nov 1st. The survey started at marker 24 of 39; the percent population was adjusted to 95% to account for the swampy and highly vegetated channels that were not surveyed up above. An OE of 90% wasused since swim conditions were good; water level was normal and visibility was good to slightly turbid in some sections. Timing lined up well with the end of spawning. The majority of fish observed were carcasses washed up on the bank or caught on vegetation.Type-5 enumeration class since only one survey was performed after peak spawning, but the area surveyed and counts were good. Used PL+D for estimate expansion.</t>
+          <t>One survey was conducted Nov 1st of Campus creek, side channel and Borrow Pits. Surveys were entered over 2 days in the database as there were 2 SILs, but added together here for total accounting. Surveyed from marker 24 down of 39; %population was adjusted to 90% for unsurveyed upper sections, and that the survey was post-flood and many carcasses were unidentifiable (but presumably chum- some missed). OE 90%, swim conditions good in lower sections; water level  normal, visibility was good/slightly turbid. Majority of fish observed were carcasses washed up on the bank or caught on vegetation post-flood.Type-5 enumeration class since only one survey was performed after peak spawning. Used expanded PL+D for estimate expansion.</t>
         </is>
       </c>
       <c r="AN35" s="0" t="b">
@@ -5007,7 +5015,7 @@
       </c>
       <c r="AM36" s="0" t="inlineStr">
         <is>
-          <t>One swim Nov 1. Swam marker 24 to lake, as well as side channel and Borrow Pits. The percent population was adjusted to 60% for three reasons: this survey occurred late for Chinook , the creek recently flooded prior to the swim, and to account for the swampy and highly vegetated channels that were not surveyed up above. OE of 80% used since swim conditions were good; water level was normal and visibility was good to slightly turbid in some sections. Type-6 due to only one survey and well after peak spawning. Used PL+D expanded.</t>
+          <t>One swim Nov 1. Swam marker 24 to lake, as well as side channel and Borrow Pits. Percent population adjusted to 60% as survey was late for Chinook, the creek recently flooded prior to the swim, and to account for the swampy and highly vegetated channels that were not surveyed up above (swam marker 24 down of 39). OE of 80% used since swim conditions were good but upper sections of Campus are channelized and grassy and complex. Type-6 due to only one survey and well after peak spawning. Used PL+D expanded.</t>
         </is>
       </c>
       <c r="AN36" s="0" t="b">
@@ -5050,88 +5058,93 @@
         <v>75</v>
       </c>
       <c r="K37" s="0">
-        <v>1050</v>
+        <v>1537.5</v>
       </c>
       <c r="L37" s="0">
+        <v>62</v>
+      </c>
+      <c r="M37" s="0">
+        <v>102</v>
+      </c>
+      <c r="N37" s="0">
+        <v>225</v>
+      </c>
+      <c r="O37" s="0">
+        <v>9</v>
+      </c>
+      <c r="P37" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="0">
+        <v>2135.41672323589</v>
+      </c>
+      <c r="R37" s="0">
+        <v>85</v>
+      </c>
+      <c r="S37" s="0">
+        <v>142</v>
+      </c>
+      <c r="T37" s="0">
+        <v>312.500008278423</v>
+      </c>
+      <c r="U37" s="0">
+        <v>13</v>
+      </c>
+      <c r="V37" s="0">
+        <v>21</v>
+      </c>
+      <c r="W37" s="0">
         <v>42</v>
       </c>
-      <c r="M37" s="0">
-        <v>70</v>
-      </c>
-      <c r="N37" s="0">
-        <v>187.5</v>
-      </c>
-      <c r="O37" s="0">
+      <c r="X37" s="0">
+        <v>58</v>
+      </c>
+      <c r="Y37" s="0">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="0">
         <v>8</v>
       </c>
-      <c r="P37" s="0">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="0">
-        <v>1312.49998044223</v>
-      </c>
-      <c r="R37" s="0">
-        <v>52</v>
-      </c>
-      <c r="S37" s="0">
-        <v>87</v>
-      </c>
-      <c r="T37" s="0">
-        <v>234.37499650754</v>
-      </c>
-      <c r="U37" s="0">
-        <v>9</v>
-      </c>
-      <c r="V37" s="0">
-        <v>16</v>
-      </c>
-      <c r="W37" s="0">
-        <v>28</v>
-      </c>
-      <c r="X37" s="0">
-        <v>35</v>
-      </c>
-      <c r="Y37" s="0">
+      <c r="AA37" s="0">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="0">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="0">
+        <v>58</v>
+      </c>
+      <c r="AE37" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="0">
+        <v>8</v>
+      </c>
+      <c r="AG37" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="0">
         <v>5</v>
-      </c>
-      <c r="Z37" s="0">
-        <v>6</v>
-      </c>
-      <c r="AA37" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="0">
-        <v>0</v>
       </c>
       <c r="AL37" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM37" s="0" t="inlineStr">
+        <is>
+          <t>One snorkel survey Nov 1 included side channel and borrow pits. Only surveyed reach 25 down (out of 39 total), but habitat above is swampy and not likely to have many more fish (90% pop applied). Upper sections of Campus very channelized, grassy and complex, so OE reduced to 80%. Type-5 due to one survey. PL+D expanded.</t>
+        </is>
       </c>
       <c r="AN37" s="0" t="b">
         <v>0</v>
@@ -5170,7 +5183,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="0">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -5221,16 +5234,16 @@
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB38" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
       </c>
       <c r="AD38" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="0">
         <v>0</v>
@@ -5251,14 +5264,14 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL38" s="0">
         <v>-1</v>
       </c>
       <c r="AM38" s="0" t="inlineStr">
         <is>
-          <t>One survey was conducted on Nov. 1st. No Pink were observed in Campus Creek this year.</t>
+          <t>One snorkel survey Nov 1. No Pink observed.</t>
         </is>
       </c>
       <c r="AN38" s="0" t="b">
@@ -5349,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="AA39" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
       </c>
       <c r="AD39" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE39" s="0">
         <v>0</v>
@@ -5379,14 +5392,14 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL39" s="0">
         <v>-1</v>
       </c>
       <c r="AM39" s="0" t="inlineStr">
         <is>
-          <t>One survey was conducted on Nov. 1st. No Sockeye were observed in Campus Creek this year.</t>
+          <t>One survey was conducted on Nov. 1st. No Sockeye were observed in Campus Creek (timing not focused on SK so Type-6).</t>
         </is>
       </c>
       <c r="AN39" s="0" t="b">
@@ -5447,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>14250</v>
+        <v>15833.3333333333</v>
       </c>
       <c r="R40" s="0">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="S40" s="0">
-        <v>950</v>
+        <v>1056</v>
       </c>
       <c r="T40" s="0">
         <v>0</v>
@@ -5468,7 +5481,7 @@
         <v>380</v>
       </c>
       <c r="X40" s="0">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -5480,11 +5493,14 @@
         <v>2</v>
       </c>
       <c r="AB40" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
       </c>
+      <c r="AD40" s="0">
+        <v>422</v>
+      </c>
       <c r="AE40" s="0">
         <v>0</v>
       </c>
@@ -5504,10 +5520,15 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL40" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM40" s="0" t="inlineStr">
+        <is>
+          <t>One heli survey Oct 24. Type-5 due to single heli survey. More chum holding/spawning closer to Nitinat confluence. Used PL+D expanded.</t>
+        </is>
       </c>
       <c r="AN40" s="0" t="b">
         <v>0</v>
@@ -5597,16 +5618,16 @@
         <v>0</v>
       </c>
       <c r="AA41" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB41" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -5627,10 +5648,15 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL41" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM41" s="0" t="inlineStr">
+        <is>
+          <t>One heli survey Oct 24 targeted for Chum. No Chinook seen.</t>
+        </is>
       </c>
       <c r="AN41" s="0" t="b">
         <v>0</v>
@@ -5720,16 +5746,16 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB42" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
       </c>
       <c r="AD42" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
@@ -5750,10 +5776,15 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL42" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM42" s="0" t="inlineStr">
+        <is>
+          <t>One heli survey Oct 24 aimed at Chum. No Coho observed.</t>
+        </is>
       </c>
       <c r="AN42" s="0" t="b">
         <v>0</v>
@@ -5770,7 +5801,7 @@
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D43" s="1">
@@ -5843,16 +5874,16 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB43" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -5873,10 +5904,15 @@
         <v>0</v>
       </c>
       <c r="AK43" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL43" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM43" s="0" t="inlineStr">
+        <is>
+          <t>One heli survey Oct 24 aimed at Chum. No pink observed (none expected)</t>
+        </is>
       </c>
       <c r="AN43" s="0" t="b">
         <v>0</v>
@@ -5885,7 +5921,7 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B44" s="0">
@@ -5893,7 +5929,7 @@
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D44" s="1">
@@ -5918,13 +5954,13 @@
         <v>75</v>
       </c>
       <c r="K44" s="0">
-        <v>13412</v>
+        <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0">
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -5936,13 +5972,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>14902.2226169963</v>
+        <v>0</v>
       </c>
       <c r="R44" s="0">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -5954,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="X44" s="0">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="0">
         <v>0</v>
@@ -5966,16 +6002,16 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB44" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -5996,10 +6032,15 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL44" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM44" s="0" t="inlineStr">
+        <is>
+          <t>One heli survey Oct 24. No SK observed (heli flight targeted for Chum and wrong time for SK).</t>
+        </is>
       </c>
       <c r="AN44" s="0" t="b">
         <v>0</v>
@@ -6016,7 +6057,7 @@
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D45" s="1">
@@ -6041,13 +6082,13 @@
         <v>75</v>
       </c>
       <c r="K45" s="0">
-        <v>0</v>
+        <v>13412</v>
       </c>
       <c r="L45" s="0">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="M45" s="0">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="N45" s="0">
         <v>0</v>
@@ -6059,13 +6100,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0</v>
+        <v>18627.7782712454</v>
       </c>
       <c r="R45" s="0">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -6077,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="X45" s="0">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -6089,16 +6130,16 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB45" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
       </c>
       <c r="AD45" s="0">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -6119,10 +6160,15 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL45" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM45" s="0" t="inlineStr">
+        <is>
+          <t>Two surveys: spot check with heli Oct 24, snorkel Nov 1. Despite some difficulties counting from heli (vegetation), used heli explanded PL+D as timing was better. Reduced OE to 80% to account for difficulty in heli survey.%Pop at 90% as couldn't survey entire area by heli due to overhanging veg. Type-5 due to 1 survey that was aerial.</t>
+        </is>
       </c>
       <c r="AN45" s="0" t="b">
         <v>0</v>
@@ -6139,7 +6185,7 @@
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D46" s="1">
@@ -6164,88 +6210,93 @@
         <v>75</v>
       </c>
       <c r="K46" s="0">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="0">
+        <v>0</v>
+      </c>
+      <c r="R46" s="0">
+        <v>0</v>
+      </c>
+      <c r="S46" s="0">
+        <v>0</v>
+      </c>
+      <c r="T46" s="0">
+        <v>0</v>
+      </c>
+      <c r="U46" s="0">
+        <v>0</v>
+      </c>
+      <c r="V46" s="0">
+        <v>0</v>
+      </c>
+      <c r="W46" s="0">
+        <v>0</v>
+      </c>
+      <c r="X46" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="0">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="0">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AE46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="0">
         <v>6</v>
-      </c>
-      <c r="Q46" s="0">
-        <v>440.00001165602</v>
-      </c>
-      <c r="R46" s="0">
-        <v>18</v>
-      </c>
-      <c r="S46" s="0">
-        <v>29</v>
-      </c>
-      <c r="T46" s="0">
-        <v>97.7777803680044</v>
-      </c>
-      <c r="U46" s="0">
-        <v>4</v>
-      </c>
-      <c r="V46" s="0">
-        <v>7</v>
-      </c>
-      <c r="W46" s="0">
-        <v>36</v>
-      </c>
-      <c r="X46" s="0">
-        <v>40</v>
-      </c>
-      <c r="Y46" s="0">
-        <v>8</v>
-      </c>
-      <c r="Z46" s="0">
-        <v>9</v>
-      </c>
-      <c r="AA46" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="0">
-        <v>0</v>
       </c>
       <c r="AL46" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM46" s="0" t="inlineStr">
+        <is>
+          <t>Two surveys: Heli Oct 24 and snorkel check Nov 1. No chinook observed.</t>
+        </is>
       </c>
       <c r="AN46" s="0" t="b">
         <v>0</v>
@@ -6262,7 +6313,7 @@
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D47" s="1">
@@ -6287,70 +6338,70 @@
         <v>75</v>
       </c>
       <c r="K47" s="0">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="L47" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M47" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N47" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="O47" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P47" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q47" s="0">
-        <v>0</v>
+        <v>628.571455927393</v>
       </c>
       <c r="R47" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S47" s="0">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="T47" s="0">
-        <v>0</v>
+        <v>139.682545761643</v>
       </c>
       <c r="U47" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V47" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W47" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="X47" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Y47" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z47" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA47" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB47" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
       </c>
       <c r="AD47" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AE47" s="0">
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -6365,10 +6416,15 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL47" s="0">
         <v>-1</v>
+      </c>
+      <c r="AM47" s="0" t="inlineStr">
+        <is>
+          <t>One survey Nov 1. PL+D expanded. Conditions ok, but full system not surveyed. Lots of small coho jacks/jimmies noted. Type-5 due to one survey.</t>
+        </is>
       </c>
       <c r="AN47" s="0" t="b">
         <v>0</v>
@@ -6377,7 +6433,7 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>930-979400-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B48" s="0">
@@ -6385,7 +6441,7 @@
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D48" s="1">
@@ -6407,7 +6463,7 @@
         <v>25</v>
       </c>
       <c r="J48" s="0">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -6458,16 +6514,16 @@
         <v>0</v>
       </c>
       <c r="AA48" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB48" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
       </c>
       <c r="AD48" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AE48" s="0">
         <v>0</v>
@@ -6488,12 +6544,268 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL48" s="0">
         <v>-1</v>
       </c>
+      <c r="AM48" s="0" t="inlineStr">
+        <is>
+          <t>One survey Nov 1. No pinks noted (none expected).</t>
+        </is>
+      </c>
       <c r="AN48" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-44200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B49" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D49" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F49" s="0">
+        <v>15</v>
+      </c>
+      <c r="G49" s="0">
+        <v>25</v>
+      </c>
+      <c r="H49" s="0">
+        <v>15</v>
+      </c>
+      <c r="I49" s="0">
+        <v>25</v>
+      </c>
+      <c r="J49" s="0">
+        <v>75</v>
+      </c>
+      <c r="K49" s="0">
+        <v>0</v>
+      </c>
+      <c r="L49" s="0">
+        <v>0</v>
+      </c>
+      <c r="M49" s="0">
+        <v>0</v>
+      </c>
+      <c r="N49" s="0">
+        <v>0</v>
+      </c>
+      <c r="O49" s="0">
+        <v>0</v>
+      </c>
+      <c r="P49" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="0">
+        <v>0</v>
+      </c>
+      <c r="R49" s="0">
+        <v>0</v>
+      </c>
+      <c r="S49" s="0">
+        <v>0</v>
+      </c>
+      <c r="T49" s="0">
+        <v>0</v>
+      </c>
+      <c r="U49" s="0">
+        <v>0</v>
+      </c>
+      <c r="V49" s="0">
+        <v>0</v>
+      </c>
+      <c r="W49" s="0">
+        <v>0</v>
+      </c>
+      <c r="X49" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="0">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="0">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="0">
+        <v>-4</v>
+      </c>
+      <c r="AE49" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="0">
+        <v>6</v>
+      </c>
+      <c r="AL49" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AM49" s="0" t="inlineStr">
+        <is>
+          <t>One Survey Nov 1. No SK noted (none expected).</t>
+        </is>
+      </c>
+      <c r="AN49" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>930-979400-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B50" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D50" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F50" s="0">
+        <v>15</v>
+      </c>
+      <c r="G50" s="0">
+        <v>25</v>
+      </c>
+      <c r="H50" s="0">
+        <v>15</v>
+      </c>
+      <c r="I50" s="0">
+        <v>25</v>
+      </c>
+      <c r="J50" s="0">
+        <v>0</v>
+      </c>
+      <c r="K50" s="0">
+        <v>0</v>
+      </c>
+      <c r="L50" s="0">
+        <v>0</v>
+      </c>
+      <c r="M50" s="0">
+        <v>0</v>
+      </c>
+      <c r="N50" s="0">
+        <v>0</v>
+      </c>
+      <c r="O50" s="0">
+        <v>0</v>
+      </c>
+      <c r="P50" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="0">
+        <v>0</v>
+      </c>
+      <c r="R50" s="0">
+        <v>0</v>
+      </c>
+      <c r="S50" s="0">
+        <v>0</v>
+      </c>
+      <c r="T50" s="0">
+        <v>0</v>
+      </c>
+      <c r="U50" s="0">
+        <v>0</v>
+      </c>
+      <c r="V50" s="0">
+        <v>0</v>
+      </c>
+      <c r="W50" s="0">
+        <v>0</v>
+      </c>
+      <c r="X50" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN50" s="0" t="b">
         <v>0</v>
       </c>
     </row>
